--- a/tests/frontend/topology.xlsx
+++ b/tests/frontend/topology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/tests/frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794A3FB-8451-9946-9797-17DC6B5D727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E729E796-DD27-4C46-AFF4-C90B03990D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="17600" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,14 @@
     <sheet name="dcline" sheetId="17" r:id="rId7"/>
     <sheet name="bus_geodata" sheetId="20" r:id="rId8"/>
     <sheet name="line_std_types" sheetId="21" r:id="rId9"/>
-    <sheet name="dtypes" sheetId="24" r:id="rId10"/>
+    <sheet name="dtypes" sheetId="25" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="235">
   <si>
     <t>version</t>
   </si>
@@ -704,6 +704,36 @@
   </si>
   <si>
     <t>int64</t>
+  </si>
+  <si>
+    <t>pwl_cost</t>
+  </si>
+  <si>
+    <t>power_type</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>poly_cost</t>
+  </si>
+  <si>
+    <t>cp0_eur</t>
+  </si>
+  <si>
+    <t>cp1_eur_per_mw</t>
+  </si>
+  <si>
+    <t>cp2_eur_per_mw2</t>
+  </si>
+  <si>
+    <t>cq0_eur</t>
+  </si>
+  <si>
+    <t>cq1_eur_per_mvar</t>
+  </si>
+  <si>
+    <t>cq2_eur_per_mvar2</t>
   </si>
 </sst>
 </file>
@@ -834,7 +864,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1209,11 +1239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:D220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC415ECF-8CEE-D644-B8AF-EFC440E10AA6}">
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="T238" sqref="T238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4258,13 +4288,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="D218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4272,13 +4302,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="D219" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4286,12 +4316,180 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
+        <v>53</v>
+      </c>
+      <c r="D220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="C220" t="s">
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221" t="s">
+        <v>227</v>
+      </c>
+      <c r="D221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>228</v>
+      </c>
+      <c r="C222" t="s">
+        <v>52</v>
+      </c>
+      <c r="D222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" t="s">
+        <v>53</v>
+      </c>
+      <c r="D223" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" t="s">
+        <v>229</v>
+      </c>
+      <c r="D224" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D225" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" t="s">
+        <v>231</v>
+      </c>
+      <c r="D226" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227" t="s">
+        <v>232</v>
+      </c>
+      <c r="D227" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" t="s">
+        <v>233</v>
+      </c>
+      <c r="D228" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>234</v>
+      </c>
+      <c r="D229" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>219</v>
+      </c>
+      <c r="C230" t="s">
+        <v>139</v>
+      </c>
+      <c r="D230" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>219</v>
+      </c>
+      <c r="C231" t="s">
+        <v>140</v>
+      </c>
+      <c r="D231" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>219</v>
+      </c>
+      <c r="C232" t="s">
         <v>141</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D232" t="s">
         <v>220</v>
       </c>
     </row>
